--- a/results/de_random_seed42_batchsize256.xlsx
+++ b/results/de_random_seed42_batchsize256.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\huangzhiying\cross-video-emotion-recognition\cross-video-emotion-recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492759CF-0E03-44B8-BF42-EC94526AB459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1502F4-B9A1-4A32-BBF6-B788D8F18F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
   <si>
     <t>Content</t>
   </si>
@@ -490,6 +491,14 @@
   <si>
     <t>[[1236 2604]
  [   0    0]]</t>
+  </si>
+  <si>
+    <t>arousal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,9 +541,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -839,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -872,16 +880,16 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0.40364584326744002</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0.71614581346511796</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0.57513914656771803</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>0.83459787556904397</v>
       </c>
       <c r="F2" t="s">
@@ -895,16 +903,16 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0.36927083134651101</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>0.68645834922790505</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0.53936858120958497</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0.81408276714021</v>
       </c>
       <c r="F3" t="s">
@@ -918,16 +926,16 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.39453125</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.65963542461395197</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0.56582633053221199</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>0.79491605209477401</v>
       </c>
       <c r="F4" t="s">
@@ -941,16 +949,16 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.47526040673255898</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0.72343748807907104</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0.64430714916151799</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0.83952855847688101</v>
       </c>
       <c r="F5" t="s">
@@ -964,16 +972,16 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.35859376192092801</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0.69296872615814198</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0.52788959171937899</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>0.81864328564836097</v>
       </c>
       <c r="F6" t="s">
@@ -987,16 +995,16 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.45833334326744002</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0.72057288885116499</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0.628571428571428</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>0.83759648857272595</v>
       </c>
       <c r="F7" t="s">
@@ -1010,16 +1018,16 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0.47421875596046398</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>0.66197913885116499</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0.64334923158452495</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>0.79661548104042601</v>
       </c>
       <c r="F8" t="s">
@@ -1033,16 +1041,16 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0.34791666269302302</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>0.58437502384185702</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0.516228748068006</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>0.73767258382642997</v>
       </c>
       <c r="F9" t="s">
@@ -1056,16 +1064,16 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>0.49869790673255898</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>0.71432292461395197</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0.66550825369244104</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>0.83335865107093998</v>
       </c>
       <c r="F10" t="s">
@@ -1079,16 +1087,16 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>0.36927083134651101</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>0.31093749403953502</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0.53936858120958497</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>0.47437425506555397</v>
       </c>
       <c r="F11" t="s">
@@ -1102,16 +1110,16 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>0.38749998807907099</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>0.63541668653488104</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0.55855855855855796</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>0.77707006369426701</v>
       </c>
       <c r="F12" t="s">
@@ -1125,16 +1133,16 @@
       <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>0.56640625</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>0.68619793653488104</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.72319201995012405</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>0.81389961389961296</v>
       </c>
       <c r="F13" t="s">
@@ -1148,16 +1156,16 @@
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>0.53385418653488104</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>0.66614586114883401</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0.69609507640067902</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>0.79962488277586696</v>
       </c>
       <c r="F14" t="s">
@@ -1171,16 +1179,16 @@
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>0.62994790077209395</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>0.71875</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0.77296692762422103</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>0.83636363636363598</v>
       </c>
       <c r="F15" t="s">
@@ -1194,16 +1202,16 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>0.67656248807907104</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>0.62812501192092896</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0.80708294501397904</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>0.77159309021113198</v>
       </c>
       <c r="F16" t="s">
@@ -1217,16 +1225,16 @@
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>0.671875</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>0.59661459922790505</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0.80373831775700899</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>0.74734953514924096</v>
       </c>
       <c r="F17" t="s">
@@ -1240,16 +1248,16 @@
       <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>0.58671873807907104</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>0.65807288885116499</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0.73953717380600603</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>0.79378043034396095</v>
       </c>
       <c r="F18" t="s">
@@ -1263,16 +1271,16 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>0.53229165077209395</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>0.63906252384185702</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0.69476546566961195</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>0.77979027645376497</v>
       </c>
       <c r="F19" t="s">
@@ -1286,16 +1294,16 @@
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>0.34531250596046398</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>0.70468747615814198</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0.51335656213704906</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>0.82676443629697505</v>
       </c>
       <c r="F20" t="s">
@@ -1309,16 +1317,16 @@
       <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>0.64479166269302302</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>0.67057293653488104</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0.78404053198226697</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>0.80280592361652303</v>
       </c>
       <c r="F21" t="s">
@@ -1332,16 +1340,16 @@
       <c r="A22" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>0.56171876192092896</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>0.40052083134651101</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0.71935967983992</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>0.57195983637039705</v>
       </c>
       <c r="F22" t="s">
@@ -1355,16 +1363,16 @@
       <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>0.65312498807907104</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>0.35963541269302302</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0.79017013232514099</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>0.52901742961118503</v>
       </c>
       <c r="F23" t="s">
@@ -1378,16 +1386,16 @@
       <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>0.66692709922790505</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>0.3828125</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0.80018747070770102</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>0.55367231638418002</v>
       </c>
       <c r="F24" t="s">
@@ -1401,16 +1409,16 @@
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>0.63802081346511796</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>0.26822915673255898</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0.779014308426073</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>0.42299794661190898</v>
       </c>
       <c r="F25" t="s">
@@ -1424,16 +1432,16 @@
       <c r="A26" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>0.67343747615814198</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>0.31406250596046398</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0.80485527544350999</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>0.47800237812128399</v>
       </c>
       <c r="F26" t="s">
@@ -1447,16 +1455,16 @@
       <c r="A27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>0.58567708730697599</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>0.38124999403953502</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0.73870914764329099</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>0.552036199095022</v>
       </c>
       <c r="F27" t="s">
@@ -1470,16 +1478,16 @@
       <c r="A28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>0.65651041269302302</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>0.65156251192092896</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0.79264266624744495</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>0.78902554399243097</v>
       </c>
       <c r="F28" t="s">
@@ -1493,16 +1501,16 @@
       <c r="A29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>0.61380207538604703</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>0.39375001192092801</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0.76069065676940395</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>0.56502242152466298</v>
       </c>
       <c r="F29" t="s">
@@ -1516,16 +1524,16 @@
       <c r="A30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>0.57578122615814198</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>0.31614583730697599</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.73078829945463497</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>0.48041155520379802</v>
       </c>
       <c r="F30" t="s">
@@ -1539,16 +1547,16 @@
       <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>0.57057291269302302</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>0.41822916269302302</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.72657934007627201</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>0.58979067205288205</v>
       </c>
       <c r="F31" t="s">
@@ -1562,16 +1570,16 @@
       <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>0.27526041865348799</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>0.38437500596046398</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.43169287318766503</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>0.55530474040632005</v>
       </c>
       <c r="F32" t="s">
@@ -1585,16 +1593,16 @@
       <c r="A33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>0.38880208134651101</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>0.33437499403953502</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0.55990999437464795</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>0.50117096018735297</v>
       </c>
       <c r="F33" t="s">
@@ -1608,16 +1616,16 @@
       <c r="A34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>0.62005209922790505</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>0.317447930574417</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.76547178910142999</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>0.48191342162482698</v>
       </c>
       <c r="F34" t="s">
@@ -1631,16 +1639,16 @@
       <c r="A35" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>0.36458334326744002</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>0.29843750596046398</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0.53435114503816705</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>0.45968712394705102</v>
       </c>
       <c r="F35" t="s">
@@ -1654,16 +1662,16 @@
       <c r="A36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>0.32786458730697599</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>0.29661458730697599</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>0.493822318101588</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>0.45752159068085901</v>
       </c>
       <c r="F36" t="s">
@@ -1677,16 +1685,16 @@
       <c r="A37" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>0.346614569425582</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>0.32942709326744002</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0.51479404370527904</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>0.49559255631733501</v>
       </c>
       <c r="F37" t="s">
@@ -1700,16 +1708,16 @@
       <c r="A38" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>0.37343749403953502</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>0.28151041269302302</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>0.54379977246871403</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>0.43934159723633398</v>
       </c>
       <c r="F38" t="s">
@@ -1723,16 +1731,16 @@
       <c r="A39" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>0.35546875</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>0.27864584326744002</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>0.52449567723342905</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>0.43584521384928698</v>
       </c>
       <c r="F39" t="s">
@@ -1746,16 +1754,16 @@
       <c r="A40" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>0.42239582538604697</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>0.37317708134651101</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>0.59392164042475204</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>0.54352361084771394</v>
       </c>
       <c r="F40" t="s">
@@ -1769,16 +1777,16 @@
       <c r="A41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>0.56015622615814198</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>0.32187500596046398</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>0.71807711567350996</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>0.48699763593380602</v>
       </c>
       <c r="F41" t="s">
@@ -1802,4 +1810,693 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD4D16B-ACAB-448B-AA93-0FB498862028}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0.40364584326744002</v>
+      </c>
+      <c r="B2">
+        <v>0.71614581346511796</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(A2*100,2)</f>
+        <v>40.36</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(B2*100,2)</f>
+        <v>71.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.36927083134651101</v>
+      </c>
+      <c r="B3">
+        <v>0.68645834922790505</v>
+      </c>
+      <c r="D3">
+        <f>ROUND(A3*100,2)</f>
+        <v>36.93</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(B3*100,2)</f>
+        <v>68.650000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.39453125</v>
+      </c>
+      <c r="B4">
+        <v>0.65963542461395197</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D42" si="0">ROUND(A4*100,2)</f>
+        <v>39.450000000000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E42" si="1">ROUND(B4*100,2)</f>
+        <v>65.959999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.47526040673255898</v>
+      </c>
+      <c r="B5">
+        <v>0.72343748807907104</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>47.53</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>72.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.35859376192092801</v>
+      </c>
+      <c r="B6">
+        <v>0.69296872615814198</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>35.86</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.45833334326744002</v>
+      </c>
+      <c r="B7">
+        <v>0.72057288885116499</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>45.83</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>72.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.47421875596046398</v>
+      </c>
+      <c r="B8">
+        <v>0.66197913885116499</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>47.42</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.34791666269302302</v>
+      </c>
+      <c r="B9">
+        <v>0.58437502384185702</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>34.79</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>58.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.49869790673255898</v>
+      </c>
+      <c r="B10">
+        <v>0.71432292461395197</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>49.87</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>0.36927083134651101</v>
+      </c>
+      <c r="B11">
+        <v>0.31093749403953502</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>36.93</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>31.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.38749998807907099</v>
+      </c>
+      <c r="B12">
+        <v>0.63541668653488104</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>63.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.56640625</v>
+      </c>
+      <c r="B13">
+        <v>0.68619793653488104</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>56.64</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.53385418653488104</v>
+      </c>
+      <c r="B14">
+        <v>0.66614586114883401</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>53.39</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>66.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.62994790077209395</v>
+      </c>
+      <c r="B15">
+        <v>0.71875</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>62.99</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>71.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.67656248807907104</v>
+      </c>
+      <c r="B16">
+        <v>0.62812501192092896</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>67.66</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0.671875</v>
+      </c>
+      <c r="B17">
+        <v>0.59661459922790505</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>67.19</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0.58671873807907104</v>
+      </c>
+      <c r="B18">
+        <v>0.65807288885116499</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>58.67</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>65.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>0.53229165077209395</v>
+      </c>
+      <c r="B19">
+        <v>0.63906252384185702</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>53.23</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>63.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>0.34531250596046398</v>
+      </c>
+      <c r="B20">
+        <v>0.70468747615814198</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>34.53</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>70.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.64479166269302302</v>
+      </c>
+      <c r="B21">
+        <v>0.67057293653488104</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>64.48</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>67.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0.56171876192092896</v>
+      </c>
+      <c r="B22">
+        <v>0.40052083134651101</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>56.17</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0.65312498807907104</v>
+      </c>
+      <c r="B23">
+        <v>0.35963541269302302</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>65.31</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.66692709922790505</v>
+      </c>
+      <c r="B24">
+        <v>0.3828125</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>66.69</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>38.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0.63802081346511796</v>
+      </c>
+      <c r="B25">
+        <v>0.26822915673255898</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>63.8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0.67343747615814198</v>
+      </c>
+      <c r="B26">
+        <v>0.31406250596046398</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>67.34</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>31.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0.58567708730697599</v>
+      </c>
+      <c r="B27">
+        <v>0.38124999403953502</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>58.57</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>38.119999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>0.65651041269302302</v>
+      </c>
+      <c r="B28">
+        <v>0.65156251192092896</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>65.650000000000006</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>65.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>0.61380207538604703</v>
+      </c>
+      <c r="B29">
+        <v>0.39375001192092801</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>61.38</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0.57578122615814198</v>
+      </c>
+      <c r="B30">
+        <v>0.31614583730697599</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>57.58</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>31.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0.57057291269302302</v>
+      </c>
+      <c r="B31">
+        <v>0.41822916269302302</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>57.06</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>41.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.27526041865348799</v>
+      </c>
+      <c r="B32">
+        <v>0.38437500596046398</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>27.53</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>0.38880208134651101</v>
+      </c>
+      <c r="B33">
+        <v>0.33437499403953502</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>38.880000000000003</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.62005209922790505</v>
+      </c>
+      <c r="B34">
+        <v>0.317447930574417</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>62.01</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>31.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0.36458334326744002</v>
+      </c>
+      <c r="B35">
+        <v>0.29843750596046398</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>36.46</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>29.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>0.32786458730697599</v>
+      </c>
+      <c r="B36">
+        <v>0.29661458730697599</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>32.79</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>0.346614569425582</v>
+      </c>
+      <c r="B37">
+        <v>0.32942709326744002</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>34.659999999999997</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>0.37343749403953502</v>
+      </c>
+      <c r="B38">
+        <v>0.28151041269302302</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>37.340000000000003</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0.35546875</v>
+      </c>
+      <c r="B39">
+        <v>0.27864584326744002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>35.549999999999997</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>27.86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>0.42239582538604697</v>
+      </c>
+      <c r="B40">
+        <v>0.37317708134651101</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>42.24</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>37.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>0.56015622615814198</v>
+      </c>
+      <c r="B41">
+        <v>0.32187500596046398</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>56.02</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <f>AVERAGE(A2:A41)</f>
+        <v>0.49888020530343036</v>
+      </c>
+      <c r="B42">
+        <f>AVERAGE(B2:B41)</f>
+        <v>0.50441406443715076</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>49.89</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>50.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>